--- a/result/zernike_02_radial_orthogonality.xlsx
+++ b/result/zernike_02_radial_orthogonality.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,143 +422,111 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Device</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2K</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>4K</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>16K</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Device</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>tensor(0.0002, dtype=torch.float64)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>tensor(7.4991e-05, dtype=torch.float64)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2K</t>
+          <t>tensor(3.6286e-05, dtype=torch.float64)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4K</t>
+          <t>tensor(1.7858e-05, dtype=torch.float64)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8K</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>16K</t>
+          <t>tensor(8.8613e-06, dtype=torch.float64)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>tensor(0.0002, device='cuda:0', dtype=torch.float64)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tensor(0.0002, dtype=torch.float64)</t>
+          <t>tensor(7.4991e-05, device='cuda:0', dtype=torch.float64)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>tensor(7.4991e-05, dtype=torch.float64)</t>
+          <t>tensor(3.6286e-05, device='cuda:0', dtype=torch.float64)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>tensor(3.6286e-05, dtype=torch.float64)</t>
+          <t>tensor(1.7858e-05, device='cuda:0', dtype=torch.float64)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>tensor(1.7858e-05, dtype=torch.float64)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>tensor(8.8613e-06, dtype=torch.float64)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>tensor(0.0002, device='cuda:0', dtype=torch.float64)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>tensor(7.4991e-05, device='cuda:0', dtype=torch.float64)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>tensor(3.6286e-05, device='cuda:0', dtype=torch.float64)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>tensor(1.7858e-05, device='cuda:0', dtype=torch.float64)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>tensor(8.8613e-06, device='cuda:0', dtype=torch.float64)</t>
         </is>

--- a/result/zernike_02_radial_orthogonality.xlsx
+++ b/result/zernike_02_radial_orthogonality.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,17 +444,22 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>16K</t>
+          <t>5K</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>6K</t>
         </is>
       </c>
     </row>
@@ -471,27 +476,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tensor(0.0002, dtype=torch.float64)</t>
+          <t>tensor(2.2528e-06)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tensor(7.4991e-05, dtype=torch.float64)</t>
+          <t>tensor(5.6366e-07)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>tensor(3.6286e-05, dtype=torch.float64)</t>
+          <t>tensor(2.5057e-07)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>tensor(1.7858e-05, dtype=torch.float64)</t>
+          <t>tensor(1.4095e-07)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>tensor(8.8613e-06, dtype=torch.float64)</t>
+          <t>tensor(9.0200e-08)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>tensor(6.2641e-08)</t>
         </is>
       </c>
     </row>
@@ -508,27 +518,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tensor(0.0002, device='cuda:0', dtype=torch.float64)</t>
+          <t>tensor(2.2528e-06, device='cuda:0')</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tensor(7.4991e-05, device='cuda:0', dtype=torch.float64)</t>
+          <t>tensor(5.6367e-07, device='cuda:0')</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>tensor(3.6286e-05, device='cuda:0', dtype=torch.float64)</t>
+          <t>tensor(2.5057e-07, device='cuda:0')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>tensor(1.7858e-05, device='cuda:0', dtype=torch.float64)</t>
+          <t>tensor(1.4095e-07, device='cuda:0')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>tensor(8.8613e-06, device='cuda:0', dtype=torch.float64)</t>
+          <t>tensor(9.0200e-08, device='cuda:0')</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>tensor(6.2641e-08, device='cuda:0')</t>
         </is>
       </c>
     </row>

--- a/result/zernike_02_radial_orthogonality.xlsx
+++ b/result/zernike_02_radial_orthogonality.xlsx
@@ -476,17 +476,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tensor(2.2528e-06)</t>
+          <t>tensor(2.2536e-06)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tensor(5.6366e-07)</t>
+          <t>tensor(5.6372e-07)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>tensor(2.5057e-07)</t>
+          <t>tensor(2.5058e-07)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>tensor(9.0200e-08)</t>
+          <t>tensor(9.0202e-08)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>tensor(6.2641e-08)</t>
+          <t>tensor(6.2642e-08)</t>
         </is>
       </c>
     </row>
@@ -518,32 +518,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tensor(2.2528e-06, device='cuda:0')</t>
+          <t>tensor(2.2534e-06, device='cuda:0')</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tensor(5.6367e-07, device='cuda:0')</t>
+          <t>tensor(5.6372e-07, device='cuda:0')</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>tensor(2.5057e-07, device='cuda:0')</t>
+          <t>tensor(2.5059e-07, device='cuda:0')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>tensor(1.4095e-07, device='cuda:0')</t>
+          <t>tensor(1.4096e-07, device='cuda:0')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>tensor(9.0200e-08, device='cuda:0')</t>
+          <t>tensor(9.0207e-08, device='cuda:0')</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>tensor(6.2641e-08, device='cuda:0')</t>
+          <t>tensor(6.2645e-08, device='cuda:0')</t>
         </is>
       </c>
     </row>
